--- a/biology/Histoire de la zoologie et de la botanique/Jean_Raynal/Jean_Raynal.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Raynal/Jean_Raynal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Raynal est un botaniste français, né le 10 décembre 1933 à Rouen[1] et mort le 12 octobre 1979 au Niger.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Raynal est un botaniste français, né le 10 décembre 1933 à Rouen et mort le 12 octobre 1979 au Niger.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Raynal est sous-directeur du Laboratoire de phanérogamie du Muséum national d'histoire naturelle et l'époux d'Aline Raynal-Roques.
-Il meurt tragiquement dans un accident de voiture en mission au Niger le 12 octobre 1979[2].
+Il meurt tragiquement dans un accident de voiture en mission au Niger le 12 octobre 1979.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Archives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, sa veuve, Aline Raynal-Roques dépose sa correspondance scientifique aux archives des Conservatoire et Jardin botaniques de Genève[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, sa veuve, Aline Raynal-Roques dépose sa correspondance scientifique aux archives des Conservatoire et Jardin botaniques de Genève.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des botanistes lui ont dédié le nom de divers taxons, en propre ou conjointement avec son épouse [4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des botanistes lui ont dédié le nom de divers taxons, en propre ou conjointement avec son épouse  :
 Noms dédiés à Jean Raynal
 Commicarpus raynalii Lebbrun &amp; Meikle
 Lipocarpha raynaleana Govind
